--- a/SchemaConverter/Schema Conversion Tool Backend Status.xlsx
+++ b/SchemaConverter/Schema Conversion Tool Backend Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\workspace\javaProjects\personalprojects\SchemaConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8900A4D0-E28A-4251-9A88-FA2141957B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7B5D4-A358-4D76-8B4C-049922C57080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5969CBDF-4A03-4B87-9F4A-424511DE4857}"/>
   </bookViews>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -246,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDEDB19-9071-4D96-BD26-0954D2363C91}">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,11 +585,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -648,11 +647,11 @@
       <c r="D9" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -736,14 +735,14 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
